--- a/Day05/FirstExcel.xlsx
+++ b/Day05/FirstExcel.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Training\PycharmProjects\Comcast10\Day05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7002C158-6CE1-4D21-BAE0-96DBBBA48732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112C9112-1ADA-4FBA-AB5E-6B86D530B5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comcast" sheetId="1" r:id="rId1"/>
     <sheet name="Players" sheetId="2" r:id="rId2"/>
+    <sheet name="Chart" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Hello World</t>
   </si>
@@ -47,7 +48,7 @@
     <t>India</t>
   </si>
   <si>
-    <t>Lara</t>
+    <t>BRAIN LARA</t>
   </si>
   <si>
     <t>West Indies</t>
@@ -69,6 +70,33 @@
   </si>
   <si>
     <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Pepsi</t>
+  </si>
+  <si>
+    <t>Coke</t>
+  </si>
+  <si>
+    <t>Sprite</t>
+  </si>
+  <si>
+    <t>Mirinda</t>
+  </si>
+  <si>
+    <t>Thumbs_up</t>
+  </si>
+  <si>
+    <t>Fanta</t>
+  </si>
+  <si>
+    <t>Slice</t>
   </si>
 </sst>
 </file>
@@ -134,6 +162,254 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Baverage Sales</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Chart!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Pepsi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Coke</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprite</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mirinda</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thumbs_up</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fanta</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Slice</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Chart!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-38F8-4035-A25B-9F947C2E3BDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Products</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Sales in Lakhs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,13 +730,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.88671875" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.109375" customWidth="1"/>
@@ -570,6 +846,89 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>285</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>